--- a/ventas-tech.xlsx
+++ b/ventas-tech.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezje\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57882D5B-AE41-451C-A243-CD055B565630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9390ECF9-E03F-4463-98C2-E83C7B9BC95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{472D84F3-6339-4E88-8EB7-0A24AE74E464}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{472D84F3-6339-4E88-8EB7-0A24AE74E464}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="14" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="15" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="85">
   <si>
     <t>Order</t>
   </si>
@@ -325,181 +324,6 @@
   </si>
   <si>
     <t>Texas</t>
-  </si>
-  <si>
-    <t>Part
-Number</t>
-  </si>
-  <si>
-    <t>Short
-Description</t>
-  </si>
-  <si>
-    <t>Product
-Family</t>
-  </si>
-  <si>
-    <t>Unit Price
-($)</t>
-  </si>
-  <si>
-    <t>Quantum
-Processor X</t>
-  </si>
-  <si>
-    <t>CPUs</t>
-  </si>
-  <si>
-    <t>UltraVision 4K
-Monitor</t>
-  </si>
-  <si>
-    <t>Monitors</t>
-  </si>
-  <si>
-    <t>CyberGuardia
-n Firewall</t>
-  </si>
-  <si>
-    <t>Networking</t>
-  </si>
-  <si>
-    <t>Lightning
-Speed SSD</t>
-  </si>
-  <si>
-    <t>Storage</t>
-  </si>
-  <si>
-    <t>NeoStream
-Gaming
-Mouse</t>
-  </si>
-  <si>
-    <t>Peripherals</t>
-  </si>
-  <si>
-    <t>TechFusion
-VR Headset</t>
-  </si>
-  <si>
-    <t>Virtual
-Reality</t>
-  </si>
-  <si>
-    <t>SmartConnect
-Wi-Fi Router</t>
-  </si>
-  <si>
-    <t>DataVault Pro
-NAS</t>
-  </si>
-  <si>
-    <t>SparkTech
-Gaming
-Keyboard</t>
-  </si>
-  <si>
-    <t>QuantumXtre
-me Graphics
-Card</t>
-  </si>
-  <si>
-    <t>GPUs</t>
-  </si>
-  <si>
-    <t>SonicWave
-Audiophile
-Headphones</t>
-  </si>
-  <si>
-    <t>Audio</t>
-  </si>
-  <si>
-    <t>BioMetric
-Security Lock</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>NanoBeam
-Ultra Wireless
-Bridge</t>
-  </si>
-  <si>
-    <t>HyperSpeed
-External SSD</t>
-  </si>
-  <si>
-    <t>RoboTech
-Companion
-Robot</t>
-  </si>
-  <si>
-    <t>Robotics</t>
-  </si>
-  <si>
-    <t>DevPro
-Developer
-Laptop</t>
-  </si>
-  <si>
-    <t>Laptops</t>
-  </si>
-  <si>
-    <t>iWatch Elite
-Smartwatch</t>
-  </si>
-  <si>
-    <t>Wearables</t>
-  </si>
-  <si>
-    <t>QuantumStre
-am Streaming
-Device</t>
-  </si>
-  <si>
-    <t>Streaming</t>
-  </si>
-  <si>
-    <t>HiFiSound
-Studio
-Speakers</t>
-  </si>
-  <si>
-    <t>TechSentry
-Security
-System</t>
-  </si>
-  <si>
-    <t>DroneMaster
-Pro</t>
-  </si>
-  <si>
-    <t>Drones</t>
-  </si>
-  <si>
-    <t>CyberShield
-Antivirus Suite</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>QuantumEdge
-Gaming
-Laptop</t>
-  </si>
-  <si>
-    <t>FusionStream
-Ultra Wi-Fi
-Extender</t>
-  </si>
-  <si>
-    <t>TechHub Pro
-Docking
-Station</t>
   </si>
   <si>
     <t>Client</t>
@@ -880,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59CF402-5D9A-413B-84FB-4DAEBB501653}">
   <dimension ref="A1:J458"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15478,10 +15302,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -15546,391 +15370,6 @@
       </c>
       <c r="B9">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C52480B-75B4-42B6-88D9-CE6DFE837B8B}">
-  <dimension ref="A1:D26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2">
-        <v>349.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3">
-        <v>499.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4">
-        <v>799.99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5">
-        <v>129.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6">
-        <v>79.95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7">
-        <v>299.99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8">
-        <v>149.99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9">
-        <v>699.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10">
-        <v>69.989999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11">
-        <v>399.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12">
-        <v>199.95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13">
-        <v>89.99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14">
-        <v>149.99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15">
-        <v>199.99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16">
-        <v>599.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17">
-        <v>899.99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18">
-        <v>349.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19">
-        <v>129.99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20">
-        <v>299.95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21">
-        <v>449.99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22">
-        <v>799.99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23">
-        <v>49.99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24">
-        <v>1499.99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25">
-        <v>89.99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26">
-        <v>129.99</v>
       </c>
     </row>
   </sheetData>
